--- a/PWC.Asim/PWC.Asim.Tests/testbatch.xlsx
+++ b/PWC.Asim/PWC.Asim.Tests/testbatch.xlsx
@@ -71,9 +71,6 @@
     <t>..\..\PWC.Asim.ExcelTools\bin\Debug\AsimExcelTools.exe</t>
   </si>
   <si>
-    <t>..\..\PWC.Asim.Sim\bin\Debug\Asim.exe</t>
-  </si>
-  <si>
     <t>Asim  Copyright (C) 2012, 2013  Power Water Corporation.</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Batch Command</t>
+  </si>
+  <si>
+    <t>..\..\PWC.Asim.ConsoleApp\bin\Debug\Asim.exe</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -233,11 +232,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="73383936"/>
-        <c:axId val="73385856"/>
+        <c:axId val="61362560"/>
+        <c:axId val="61364480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73383936"/>
+        <c:axId val="61362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,7 +245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73385856"/>
+        <c:crossAx val="61364480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -254,7 +253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73385856"/>
+        <c:axId val="61364480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -267,7 +266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73383936"/>
+        <c:crossAx val="61362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -610,7 +609,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -717,7 +716,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -773,42 +772,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -816,7 +815,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
